--- a/T- and Chi2 test tables/top4_just_img_sign_diff_in_std_diffs.xlsx
+++ b/T- and Chi2 test tables/top4_just_img_sign_diff_in_std_diffs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>var</t>
   </si>
@@ -40,61 +40,187 @@
     <t>sign_diff/corr</t>
   </si>
   <si>
+    <t>part_of_the_day_22-05</t>
+  </si>
+  <si>
+    <t>topic_name_Togetherness</t>
+  </si>
+  <si>
+    <t>topic_name_unknown</t>
+  </si>
+  <si>
+    <t>topic_name_Appreciation</t>
+  </si>
+  <si>
+    <t>person_0</t>
+  </si>
+  <si>
+    <t>cup_0</t>
+  </si>
+  <si>
+    <t>cellphone_0</t>
+  </si>
+  <si>
+    <t>man_detected_0</t>
+  </si>
+  <si>
+    <t>woman_detected_0</t>
+  </si>
+  <si>
     <t>laptop_0</t>
   </si>
   <si>
-    <t>part_of_the_day_22-05</t>
-  </si>
-  <si>
-    <t>topic_name_unknown</t>
-  </si>
-  <si>
-    <t>topic_name_Appreciation</t>
-  </si>
-  <si>
-    <t>topic_name_Togetherness</t>
-  </si>
-  <si>
-    <t>person_0</t>
-  </si>
-  <si>
     <t>pottedplant_0</t>
   </si>
   <si>
-    <t>cup_0</t>
-  </si>
-  <si>
-    <t>cellphone_0</t>
-  </si>
-  <si>
-    <t>man_detected_0</t>
-  </si>
-  <si>
-    <t>woman_detected_0</t>
-  </si>
-  <si>
-    <t>month_02</t>
+    <t>month_2</t>
+  </si>
+  <si>
+    <t>part_of_the_day_15-19</t>
+  </si>
+  <si>
+    <t>topic_name_Digital</t>
+  </si>
+  <si>
+    <t>topic_name_Financial</t>
+  </si>
+  <si>
+    <t>nothing_0</t>
+  </si>
+  <si>
+    <t>orange</t>
   </si>
   <si>
     <t>yellow</t>
   </si>
   <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>nothing_0</t>
-  </si>
-  <si>
-    <t>part_of_the_day_15-19</t>
-  </si>
-  <si>
-    <t>topic_name_Digital</t>
-  </si>
-  <si>
-    <t>topic_name_Financial</t>
-  </si>
-  <si>
     <t>box_areas</t>
+  </si>
+  <si>
+    <t>month_1</t>
+  </si>
+  <si>
+    <t>month_3</t>
+  </si>
+  <si>
+    <t>month_5</t>
+  </si>
+  <si>
+    <t>month_6</t>
+  </si>
+  <si>
+    <t>month_7</t>
+  </si>
+  <si>
+    <t>month_8</t>
+  </si>
+  <si>
+    <t>month_11</t>
+  </si>
+  <si>
+    <t>month_12</t>
+  </si>
+  <si>
+    <t>part_of_the_day_12-15</t>
+  </si>
+  <si>
+    <t>part_of_the_day_05-08</t>
+  </si>
+  <si>
+    <t>part_of_the_day_08-12</t>
+  </si>
+  <si>
+    <t>topic_name_Competition</t>
+  </si>
+  <si>
+    <t>topic_name_Festivity</t>
+  </si>
+  <si>
+    <t>topic_name_Event</t>
+  </si>
+  <si>
+    <t>topic_name_Empowerment</t>
+  </si>
+  <si>
+    <t>sentiment_1</t>
+  </si>
+  <si>
+    <t>is_weekday_0</t>
+  </si>
+  <si>
+    <t>chair_0</t>
+  </si>
+  <si>
+    <t>tie_0</t>
+  </si>
+  <si>
+    <t>month_4</t>
+  </si>
+  <si>
+    <t>month_9</t>
+  </si>
+  <si>
+    <t>month_10</t>
+  </si>
+  <si>
+    <t>asking_for_eng_0</t>
+  </si>
+  <si>
+    <t>part_of_the_day_19-22</t>
+  </si>
+  <si>
+    <t>has_emoji_0</t>
+  </si>
+  <si>
+    <t>topic_name_Education</t>
+  </si>
+  <si>
+    <t>topic_name_Entrepreneurship</t>
+  </si>
+  <si>
+    <t>topic_name_Transaction</t>
+  </si>
+  <si>
+    <t>sentiment_0</t>
+  </si>
+  <si>
+    <t>sentiment_-1</t>
+  </si>
+  <si>
+    <t>car_0</t>
+  </si>
+  <si>
+    <t>bottle_0</t>
+  </si>
+  <si>
+    <t>raw_length</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
 </sst>
 </file>
@@ -452,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,22 +618,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2659</v>
+        <v>339</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0.07932861938604523</v>
+        <v>0.2046919678037175</v>
       </c>
       <c r="F2">
-        <v>-0.1584986128681667</v>
+        <v>0.04263132540836598</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -521,22 +647,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>339</v>
+        <v>145</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0.2046919678037175</v>
+        <v>0.3812544652502461</v>
       </c>
       <c r="F3">
-        <v>0.04263132540836598</v>
+        <v>0.04477299910423963</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.038</v>
+        <v>0.003</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,22 +734,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>145</v>
+        <v>671</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.3812544652502461</v>
+        <v>0.2381479987643675</v>
       </c>
       <c r="F6">
-        <v>0.04477299910423963</v>
+        <v>0.007970811749341954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -637,22 +763,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>671</v>
+        <v>2777</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0.2381479987643675</v>
+        <v>0.06931506057830639</v>
       </c>
       <c r="F7">
-        <v>0.007970811749341954</v>
+        <v>-0.1612215979416371</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -666,16 +792,16 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>2794</v>
+        <v>2557</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0.07019748801835668</v>
+        <v>0.08457797608802213</v>
       </c>
       <c r="F8">
-        <v>-0.2441388117382553</v>
+        <v>-0.1239897829223875</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -695,22 +821,22 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>2777</v>
+        <v>1990</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.06931506057830639</v>
+        <v>0.09179794482834421</v>
       </c>
       <c r="F9">
-        <v>-0.1612215979416371</v>
+        <v>-0.006066761848992116</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -724,16 +850,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>2557</v>
+        <v>1973</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.08457797608802213</v>
+        <v>0.1077822107453573</v>
       </c>
       <c r="F10">
-        <v>-0.1239897829223875</v>
+        <v>-0.03933319463379395</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -753,22 +879,22 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>1990</v>
+        <v>2659</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0.09179794482834421</v>
+        <v>0.07932861938604523</v>
       </c>
       <c r="F11">
-        <v>-0.006066761848992116</v>
+        <v>-0.1584986128681667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -782,16 +908,16 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>1973</v>
+        <v>2794</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>0.1077822107453573</v>
+        <v>0.07019748801835668</v>
       </c>
       <c r="F12">
-        <v>-0.03933319463379395</v>
+        <v>-0.2441388117382553</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -840,22 +966,22 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>2871</v>
+        <v>1126</v>
       </c>
       <c r="D14">
-        <v>1197</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>0.06176701254595713</v>
+        <v>-0.007929653474564624</v>
       </c>
       <c r="F14">
-        <v>-0.04808753239745137</v>
+        <v>0.106740334001033</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -869,22 +995,22 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>2871</v>
+        <v>593</v>
       </c>
       <c r="D15">
-        <v>1362</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>0.06176701254595713</v>
+        <v>-0.09676119889425254</v>
       </c>
       <c r="F15">
-        <v>-0.04351743310378378</v>
+        <v>0.103034453013053</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -898,16 +1024,16 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>2311</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>0.01503166925358129</v>
+        <v>-0.2833475226533651</v>
       </c>
       <c r="F16">
-        <v>0.2546337595971724</v>
+        <v>0.06763505990322509</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -927,22 +1053,22 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>1126</v>
+        <v>2311</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>-0.007929653474564624</v>
+        <v>0.01503166925358129</v>
       </c>
       <c r="F17">
-        <v>0.106740334001033</v>
+        <v>0.2546337595971724</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -956,22 +1082,22 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>593</v>
+        <v>2871</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>1362</v>
       </c>
       <c r="E18">
-        <v>-0.09676119889425254</v>
+        <v>0.06176701254595713</v>
       </c>
       <c r="F18">
-        <v>0.103034453013053</v>
+        <v>-0.04351743310378378</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -985,22 +1111,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>2871</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>1197</v>
       </c>
       <c r="E19">
-        <v>-0.2833475226533651</v>
+        <v>0.06176701254595713</v>
       </c>
       <c r="F19">
-        <v>0.06763505990322509</v>
+        <v>-0.04808753239745137</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1033,6 +1159,1224 @@
       </c>
       <c r="I20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>257</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.08381631735607772</v>
+      </c>
+      <c r="F21">
+        <v>0.05959919642652293</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.746</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>248</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0.1521751205882893</v>
+      </c>
+      <c r="F22">
+        <v>0.05321908620417351</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.226</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>224</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0.07406195784082623</v>
+      </c>
+      <c r="F23">
+        <v>0.06072656383192212</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0.86</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>236</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>0.1103806287437743</v>
+      </c>
+      <c r="F24">
+        <v>0.05741300365689267</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.509</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>207</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0.1028552704327899</v>
+      </c>
+      <c r="F25">
+        <v>0.05857434385880457</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.574</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>261</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>0.1241273043133587</v>
+      </c>
+      <c r="F26">
+        <v>0.05553098336921698</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.337</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>222</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0.07536888122619055</v>
+      </c>
+      <c r="F27">
+        <v>0.06062710509144154</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.838</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>154</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>0.09353538323831803</v>
+      </c>
+      <c r="F28">
+        <v>0.0599663761504387</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.729</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>645</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0.09358882907115902</v>
+      </c>
+      <c r="F29">
+        <v>0.05254640533178138</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.385</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>0.3270756912029645</v>
+      </c>
+      <c r="F30">
+        <v>0.05725591917878164</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.173</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0.2214474963653648</v>
+      </c>
+      <c r="F31">
+        <v>0.05765947598468617</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.149</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>309</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>0.1011863124558921</v>
+      </c>
+      <c r="F32">
+        <v>0.05701269417274482</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0.543</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>289</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>0.08260566829199113</v>
+      </c>
+      <c r="F33">
+        <v>0.05943456811892234</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.76</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>350</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>0.1356752051743294</v>
+      </c>
+      <c r="F34">
+        <v>0.05150605759953494</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.197</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>194</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>0.09196493989136666</v>
+      </c>
+      <c r="F35">
+        <v>0.05957859345555391</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>2190</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0.06511705667957418</v>
+      </c>
+      <c r="F36">
+        <v>0.05099374286516221</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.773</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>460</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0.07345106174963431</v>
+      </c>
+      <c r="F37">
+        <v>0.05953778706537168</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0.759</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>2754</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0.0626177873453776</v>
+      </c>
+      <c r="F38">
+        <v>0.04174108265190592</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0.859</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>2628</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0.06737679437670852</v>
+      </c>
+      <c r="F39">
+        <v>0.001098260894868011</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.281</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>199</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>0.02423439301294436</v>
+      </c>
+      <c r="F40">
+        <v>0.06456229371626758</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>270</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0.04563166278270583</v>
+      </c>
+      <c r="F41">
+        <v>0.06344196234837075</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.795</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>327</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>-0.01451217150735178</v>
+      </c>
+      <c r="F42">
+        <v>0.07157176615658291</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.106</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>2868</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0.05897407816335586</v>
+      </c>
+      <c r="F43">
+        <v>2.731812282312763</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.31</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>641</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>0.03878729809578208</v>
+      </c>
+      <c r="F44">
+        <v>0.06837239234979667</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.53</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>2402</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0.05136570005325355</v>
+      </c>
+      <c r="F45">
+        <v>0.115037700408375</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.209</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>333</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>-0.01328516266064371</v>
+      </c>
+      <c r="F46">
+        <v>0.07161428376100759</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.139</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>359</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>-0.006478001186474383</v>
+      </c>
+      <c r="F47">
+        <v>0.07152018130787707</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.142</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>150</v>
+      </c>
+      <c r="D48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>0.031881969247746</v>
+      </c>
+      <c r="F48">
+        <v>0.06341447910043403</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.666</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>473</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>0.06025235359852137</v>
+      </c>
+      <c r="F49">
+        <v>0.06206577554935043</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.975</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>208</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0.02993930595709062</v>
+      </c>
+      <c r="F50">
+        <v>0.06425299188147504</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.642</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>2846</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0.06026297678231101</v>
+      </c>
+      <c r="F51">
+        <v>0.2329864438794308</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.525</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>2821</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0.06014270869123468</v>
+      </c>
+      <c r="F52">
+        <v>0.1534102360293982</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.596</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>2871</v>
+      </c>
+      <c r="D53">
+        <v>233</v>
+      </c>
+      <c r="E53">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F53">
+        <v>0.01120756446681922</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.548</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>2871</v>
+      </c>
+      <c r="D54">
+        <v>1624</v>
+      </c>
+      <c r="E54">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F54">
+        <v>-0.00268337222055278</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.886</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>2871</v>
+      </c>
+      <c r="D55">
+        <v>1621</v>
+      </c>
+      <c r="E55">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F55">
+        <v>0.01105548370979161</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.554</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>2871</v>
+      </c>
+      <c r="D56">
+        <v>1573</v>
+      </c>
+      <c r="E56">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F56">
+        <v>0.001132873521613663</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.952</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>2871</v>
+      </c>
+      <c r="D57">
+        <v>1427</v>
+      </c>
+      <c r="E57">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F57">
+        <v>-0.02209303680032229</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.237</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>2871</v>
+      </c>
+      <c r="D58">
+        <v>897</v>
+      </c>
+      <c r="E58">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F58">
+        <v>0.01990594272671064</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.286</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>2871</v>
+      </c>
+      <c r="D59">
+        <v>886</v>
+      </c>
+      <c r="E59">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F59">
+        <v>-0.005630665141391955</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.763</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>2871</v>
+      </c>
+      <c r="D60">
+        <v>1497</v>
+      </c>
+      <c r="E60">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F60">
+        <v>0.01541763422011569</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.409</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>2871</v>
+      </c>
+      <c r="D61">
+        <v>941</v>
+      </c>
+      <c r="E61">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F61">
+        <v>-0.02279623555090921</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.222</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>2871</v>
+      </c>
+      <c r="D62">
+        <v>1251</v>
+      </c>
+      <c r="E62">
+        <v>0.06176701254595713</v>
+      </c>
+      <c r="F62">
+        <v>-0.008306057193429407</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.656</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
